--- a/studies/labor study_A/Coding/coding_items_240820.xlsx
+++ b/studies/labor study_A/Coding/coding_items_240820.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\studies\labor study_A\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54814AEE-0B0A-471E-A42F-E72BBD91C1C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D6A3EB-8497-4344-9087-556F56058583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8CF18335-A014-4D58-B979-FFCA93177016}"/>
   </bookViews>
@@ -1183,9 +1183,9 @@
   <dimension ref="A1:AF159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G150" sqref="G150"/>
+      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/studies/labor study_A/Coding/coding_items_240820.xlsx
+++ b/studies/labor study_A/Coding/coding_items_240820.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\studies\labor study_A\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D6A3EB-8497-4344-9087-556F56058583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846C920-A16B-418B-98A4-302D7217F42C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8CF18335-A014-4D58-B979-FFCA93177016}"/>
   </bookViews>
@@ -1183,9 +1183,9 @@
   <dimension ref="A1:AF159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
+      <selection pane="bottomLeft" activeCell="A129" sqref="A129:XFD129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5894,44 +5894,24 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>219</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -5939,19 +5919,19 @@
         <v>158</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -5959,16 +5939,16 @@
         <v>158</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>194</v>
@@ -5979,19 +5959,19 @@
         <v>158</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -5999,19 +5979,19 @@
         <v>158</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -6019,39 +5999,39 @@
         <v>158</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F134" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -6059,13 +6039,13 @@
         <v>158</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>167</v>
@@ -6079,19 +6059,19 @@
         <v>158</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -6099,18 +6079,38 @@
         <v>158</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G140" s="3" t="s">
         <v>207</v>
       </c>
     </row>

--- a/studies/labor study_A/Coding/coding_items_240820.xlsx
+++ b/studies/labor study_A/Coding/coding_items_240820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846C920-A16B-418B-98A4-302D7217F42C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32DC622-8864-4C97-9F79-99916E55E8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8CF18335-A014-4D58-B979-FFCA93177016}"/>
   </bookViews>
@@ -1182,10 +1182,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F403B895-D566-4AA1-9A4C-99160648D197}">
   <dimension ref="A1:AF159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A129:XFD129"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
